--- a/HALO.xlsx
+++ b/HALO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D59BCE1-F6B1-46B7-A188-66B4A47C66D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF905E79-7300-4E75-96A9-06C056D2D7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="1725" windowWidth="19695" windowHeight="13635" activeTab="1" xr2:uid="{09F161B0-F89E-4C8B-8031-C3ED112ACB2C}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14595" xr2:uid="{09F161B0-F89E-4C8B-8031-C3ED112ACB2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>HALO</t>
   </si>
@@ -151,13 +151,16 @@
   </si>
   <si>
     <t>Diff</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,12 +169,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,16 +202,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -219,10 +228,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,67 +547,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5888AE-3565-48BC-80C7-C570B89CEA73}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="209" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="209" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="9"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>61.2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>123.15300000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="E3" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f>D3*D2</f>
         <v>7536.963600000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f>115.85+480.224</f>
         <v>596.07399999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="E5" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f>54.758+1505.8</f>
         <v>1560.558</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="E6" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f>D4+D6-D5</f>
         <v>8501.4475999999995</v>
       </c>
@@ -617,98 +634,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3608F40A-20B8-41C3-ABE1-B9840C2BF50D}">
   <dimension ref="A1:DF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="A18:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="2">
         <v>2022</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="2">
         <f>B1+1</f>
         <v>2023</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="2">
         <f t="shared" ref="D1:I1" si="0">C1+1</f>
         <v>2024</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>360.5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>447.87</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>570.99</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>740</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>191.03</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>300.85000000000002</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>303.49200000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>108.61</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>80.5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>140.84</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -744,313 +761,313 @@
         <v>1677.2327040000007</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>139.30000000000001</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>192.4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>159.4</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f>E5*(1-E24)</f>
         <v>192.00000000000003</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f t="shared" ref="F6:I6" si="2">F5*(1-F24)</f>
         <v>268.8</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f t="shared" si="2"/>
         <v>292.99199999999996</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <f t="shared" si="2"/>
         <v>313.50144</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <f t="shared" si="2"/>
         <v>335.44654080000004</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <f>B5-B6</f>
         <v>520.83999999999992</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <f t="shared" ref="C7:D7" si="3">C5-C6</f>
         <v>636.82000000000005</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f t="shared" si="3"/>
         <v>855.92200000000003</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f t="shared" ref="E7" si="4">E5-E6</f>
         <v>1008</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f t="shared" ref="F7" si="5">F5-F6</f>
         <v>1075.2000000000003</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <f t="shared" ref="G7" si="6">G5-G6</f>
         <v>1171.9680000000003</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <f t="shared" ref="H7" si="7">H5-H6</f>
         <v>1254.0057600000005</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <f t="shared" ref="I7" si="8">I5-I6</f>
         <v>1341.7861632000006</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>43.14</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>73.8</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>71.05</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>66.599999999999994</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>76.400000000000006</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>143.5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>149.1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>154.30000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <f>SUM(B8:B10)</f>
         <v>253.24</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <f t="shared" ref="C11:D11" si="9">SUM(C8:C10)</f>
         <v>299.29999999999995</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f t="shared" si="9"/>
         <v>304.45</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <f>D11*(1+E21-0.1)</f>
         <v>329.38173476985622</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <f t="shared" ref="F11:I11" si="10">E11*(1+F21-0.1)</f>
         <v>335.96936946525335</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <f t="shared" si="10"/>
         <v>332.60967577060086</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <f t="shared" si="10"/>
         <v>322.63138549748288</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <f t="shared" si="10"/>
         <v>312.95244393255842</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <f>B7-B11</f>
         <v>267.59999999999991</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <f t="shared" ref="C12:D12" si="11">C7-C11</f>
         <v>337.5200000000001</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <f t="shared" si="11"/>
         <v>551.47199999999998</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <f t="shared" ref="E12" si="12">E7-E11</f>
         <v>678.61826523014383</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <f t="shared" ref="F12" si="13">F7-F11</f>
         <v>739.23063053474698</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <f t="shared" ref="G12" si="14">G7-G11</f>
         <v>839.35832422939939</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <f t="shared" ref="H12" si="15">H7-H11</f>
         <v>931.37437450251764</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <f t="shared" ref="I12" si="16">I7-I11</f>
         <v>1028.8337192674421</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>1.05</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>16.32</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>23.75</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>-17</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>-19</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>-18.100000000000001</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <f>D32*$L$19</f>
-        <v>-57.869039999999998</v>
-      </c>
-      <c r="F14" s="2">
+        <v>-38.579360000000001</v>
+      </c>
+      <c r="F14" s="1">
         <f>E32*$L$19</f>
-        <v>-28.445526724091184</v>
-      </c>
-      <c r="G14" s="2">
+        <v>-18.354130594727454</v>
+      </c>
+      <c r="G14" s="1">
         <f>F32*$L$19</f>
-        <v>5.2456871965338996</v>
-      </c>
-      <c r="H14" s="2">
+        <v>4.4255668033771647</v>
+      </c>
+      <c r="H14" s="1">
         <f>G32*$L$19</f>
-        <v>45.279917338123134</v>
-      </c>
-      <c r="I14" s="2">
+        <v>31.089137760012907</v>
+      </c>
+      <c r="I14" s="1">
         <f>H32*$L$19</f>
-        <v>91.573330771369513</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+        <v>61.502984747508876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <f>B12+SUM(B13:B14)</f>
         <v>251.64999999999992</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <f t="shared" ref="C15:D15" si="17">C12+SUM(C13:C14)</f>
         <v>334.84000000000009</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <f t="shared" si="17"/>
         <v>557.12199999999996</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <f t="shared" ref="E15" si="18">E12+SUM(E13:E14)</f>
-        <v>620.74922523014379</v>
-      </c>
-      <c r="F15" s="2">
+        <v>640.03890523014388</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" ref="F15" si="19">F12+SUM(F13:F14)</f>
-        <v>710.78510381065576</v>
-      </c>
-      <c r="G15" s="2">
+        <v>720.87649994001947</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" ref="G15" si="20">G12+SUM(G13:G14)</f>
-        <v>844.60401142593332</v>
-      </c>
-      <c r="H15" s="2">
+        <v>843.78389103277652</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" ref="H15" si="21">H12+SUM(H13:H14)</f>
-        <v>976.65429184064078</v>
-      </c>
-      <c r="I15" s="2">
+        <v>962.46351226253057</v>
+      </c>
+      <c r="I15" s="1">
         <f t="shared" ref="I15" si="22">I12+SUM(I13:I14)</f>
-        <v>1120.4070500388116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+        <v>1090.336704014951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>46.8</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>66.7</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>113.041</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <f>E15*E22</f>
-        <v>130.35733729833018</v>
-      </c>
-      <c r="F16" s="2">
+        <v>134.4081700983302</v>
+      </c>
+      <c r="F16" s="1">
         <f t="shared" ref="F16:I16" si="23">F15*F22</f>
-        <v>149.2648718002377</v>
-      </c>
-      <c r="G16" s="2">
+        <v>151.38406498740409</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="23"/>
-        <v>177.366842399446</v>
-      </c>
-      <c r="H16" s="2">
+        <v>177.19461711688305</v>
+      </c>
+      <c r="H16" s="1">
         <f t="shared" si="23"/>
-        <v>205.09740128653456</v>
-      </c>
-      <c r="I16" s="2">
+        <v>202.11733757513142</v>
+      </c>
+      <c r="I16" s="1">
         <f t="shared" si="23"/>
-        <v>235.28548050815041</v>
-      </c>
-    </row>
-    <row r="17" spans="1:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>228.97070784313971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:110" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1068,506 +1085,506 @@
       </c>
       <c r="E17" s="3">
         <f t="shared" ref="E17" si="25">E15-E16</f>
-        <v>490.39188793181359</v>
+        <v>505.63073513181371</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" ref="F17" si="26">F15-F16</f>
-        <v>561.52023201041811</v>
+        <v>569.49243495261544</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" ref="G17" si="27">G15-G16</f>
-        <v>667.23716902648732</v>
+        <v>666.5892739158935</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" ref="H17" si="28">H15-H16</f>
-        <v>771.55689055410619</v>
+        <v>760.34617468739918</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" ref="I17" si="29">I15-I16</f>
-        <v>885.12156953066119</v>
+        <v>861.36599617181128</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" ref="J17:AO17" si="30">I17*(1+$L$20)</f>
-        <v>858.56792244474138</v>
+        <v>835.52501628665686</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="30"/>
-        <v>832.81088477139917</v>
+        <v>810.45926579805712</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="30"/>
-        <v>807.82655822825723</v>
+        <v>786.14548782411543</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="30"/>
-        <v>783.59176148140943</v>
+        <v>762.56112318939199</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="30"/>
-        <v>760.08400863696716</v>
+        <v>739.68428949371025</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="30"/>
-        <v>737.28148837785807</v>
+        <v>717.49376080889897</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="30"/>
-        <v>715.16304372652235</v>
+        <v>695.968947984632</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="30"/>
-        <v>693.70815241472667</v>
+        <v>675.08987954509303</v>
       </c>
       <c r="R17" s="3">
         <f t="shared" si="30"/>
-        <v>672.8969078422848</v>
+        <v>654.83718315874023</v>
       </c>
       <c r="S17" s="3">
         <f t="shared" si="30"/>
-        <v>652.71000060701624</v>
+        <v>635.19206766397804</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="30"/>
-        <v>633.12870058880571</v>
+        <v>616.13630563405866</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="30"/>
-        <v>614.13483957114147</v>
+        <v>597.65221646503687</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" si="30"/>
-        <v>595.71079438400716</v>
+        <v>579.72264997108573</v>
       </c>
       <c r="W17" s="3">
         <f t="shared" si="30"/>
-        <v>577.83947055248689</v>
+        <v>562.33097047195315</v>
       </c>
       <c r="X17" s="3">
         <f t="shared" si="30"/>
-        <v>560.50428643591226</v>
+        <v>545.46104135779456</v>
       </c>
       <c r="Y17" s="3">
         <f t="shared" si="30"/>
-        <v>543.6891578428349</v>
+        <v>529.09721011706074</v>
       </c>
       <c r="Z17" s="3">
         <f t="shared" si="30"/>
-        <v>527.37848310754987</v>
+        <v>513.22429381354891</v>
       </c>
       <c r="AA17" s="3">
         <f t="shared" si="30"/>
-        <v>511.55712861432335</v>
+        <v>497.82756499914245</v>
       </c>
       <c r="AB17" s="3">
         <f t="shared" si="30"/>
-        <v>496.21041475589362</v>
+        <v>482.89273804916814</v>
       </c>
       <c r="AC17" s="3">
         <f t="shared" si="30"/>
-        <v>481.32410231321683</v>
+        <v>468.40595590769311</v>
       </c>
       <c r="AD17" s="3">
         <f t="shared" si="30"/>
-        <v>466.88437924382032</v>
+        <v>454.3537772304623</v>
       </c>
       <c r="AE17" s="3">
         <f t="shared" si="30"/>
-        <v>452.8778478665057</v>
+        <v>440.72316391354843</v>
       </c>
       <c r="AF17" s="3">
         <f t="shared" si="30"/>
-        <v>439.29151243051052</v>
+        <v>427.50146899614197</v>
       </c>
       <c r="AG17" s="3">
         <f t="shared" si="30"/>
-        <v>426.11276705759519</v>
+        <v>414.67642492625771</v>
       </c>
       <c r="AH17" s="3">
         <f t="shared" si="30"/>
-        <v>413.3293840458673</v>
+        <v>402.23613217846997</v>
       </c>
       <c r="AI17" s="3">
         <f t="shared" si="30"/>
-        <v>400.92950252449128</v>
+        <v>390.16904821311584</v>
       </c>
       <c r="AJ17" s="3">
         <f t="shared" si="30"/>
-        <v>388.90161744875655</v>
+        <v>378.46397676672234</v>
       </c>
       <c r="AK17" s="3">
         <f t="shared" si="30"/>
-        <v>377.23456892529384</v>
+        <v>367.11005746372064</v>
       </c>
       <c r="AL17" s="3">
         <f t="shared" si="30"/>
-        <v>365.91753185753504</v>
+        <v>356.096755739809</v>
       </c>
       <c r="AM17" s="3">
         <f t="shared" si="30"/>
-        <v>354.940005901809</v>
+        <v>345.4138530676147</v>
       </c>
       <c r="AN17" s="3">
         <f t="shared" si="30"/>
-        <v>344.29180572475474</v>
+        <v>335.05143747558623</v>
       </c>
       <c r="AO17" s="3">
         <f t="shared" si="30"/>
-        <v>333.96305155301206</v>
+        <v>324.99989435131863</v>
       </c>
       <c r="AP17" s="3">
         <f t="shared" ref="AP17:BU17" si="31">AO17*(1+$L$20)</f>
-        <v>323.94416000642167</v>
+        <v>315.24989752077909</v>
       </c>
       <c r="AQ17" s="3">
         <f t="shared" si="31"/>
-        <v>314.22583520622902</v>
+        <v>305.7924005951557</v>
       </c>
       <c r="AR17" s="3">
         <f t="shared" si="31"/>
-        <v>304.79906015004212</v>
+        <v>296.61862857730102</v>
       </c>
       <c r="AS17" s="3">
         <f t="shared" si="31"/>
-        <v>295.65508834554083</v>
+        <v>287.72006971998201</v>
       </c>
       <c r="AT17" s="3">
         <f t="shared" si="31"/>
-        <v>286.78543569517461</v>
+        <v>279.08846762838255</v>
       </c>
       <c r="AU17" s="3">
         <f t="shared" si="31"/>
-        <v>278.18187262431934</v>
+        <v>270.71581359953109</v>
       </c>
       <c r="AV17" s="3">
         <f t="shared" si="31"/>
-        <v>269.83641644558975</v>
+        <v>262.59433919154515</v>
       </c>
       <c r="AW17" s="3">
         <f t="shared" si="31"/>
-        <v>261.74132395222205</v>
+        <v>254.71650901579878</v>
       </c>
       <c r="AX17" s="3">
         <f t="shared" si="31"/>
-        <v>253.88908423365538</v>
+        <v>247.07501374532481</v>
       </c>
       <c r="AY17" s="3">
         <f t="shared" si="31"/>
-        <v>246.27241170664573</v>
+        <v>239.66276333296506</v>
       </c>
       <c r="AZ17" s="3">
         <f t="shared" si="31"/>
-        <v>238.88423935544634</v>
+        <v>232.4728804329761</v>
       </c>
       <c r="BA17" s="3">
         <f t="shared" si="31"/>
-        <v>231.71771217478295</v>
+        <v>225.4986940199868</v>
       </c>
       <c r="BB17" s="3">
         <f t="shared" si="31"/>
-        <v>224.76618080953946</v>
+        <v>218.73373319938719</v>
       </c>
       <c r="BC17" s="3">
         <f t="shared" si="31"/>
-        <v>218.02319538525327</v>
+        <v>212.17172120340555</v>
       </c>
       <c r="BD17" s="3">
         <f t="shared" si="31"/>
-        <v>211.48249952369568</v>
+        <v>205.80656956730337</v>
       </c>
       <c r="BE17" s="3">
         <f t="shared" si="31"/>
-        <v>205.13802453798479</v>
+        <v>199.63237248028426</v>
       </c>
       <c r="BF17" s="3">
         <f t="shared" si="31"/>
-        <v>198.98388380184525</v>
+        <v>193.64340130587573</v>
       </c>
       <c r="BG17" s="3">
         <f t="shared" si="31"/>
-        <v>193.0143672877899</v>
+        <v>187.83409926669944</v>
       </c>
       <c r="BH17" s="3">
         <f t="shared" si="31"/>
-        <v>187.22393626915618</v>
+        <v>182.19907628869845</v>
       </c>
       <c r="BI17" s="3">
         <f t="shared" si="31"/>
-        <v>181.60721818108149</v>
+        <v>176.73310400003749</v>
       </c>
       <c r="BJ17" s="3">
         <f t="shared" si="31"/>
-        <v>176.15900163564905</v>
+        <v>171.43111088003636</v>
       </c>
       <c r="BK17" s="3">
         <f t="shared" si="31"/>
-        <v>170.87423158657958</v>
+        <v>166.28817755363525</v>
       </c>
       <c r="BL17" s="3">
         <f t="shared" si="31"/>
-        <v>165.7480046389822</v>
+        <v>161.29953222702619</v>
       </c>
       <c r="BM17" s="3">
         <f t="shared" si="31"/>
-        <v>160.77556449981273</v>
+        <v>156.46054626021541</v>
       </c>
       <c r="BN17" s="3">
         <f t="shared" si="31"/>
-        <v>155.95229756481834</v>
+        <v>151.76672987240894</v>
       </c>
       <c r="BO17" s="3">
         <f t="shared" si="31"/>
-        <v>151.27372863787377</v>
+        <v>147.21372797623667</v>
       </c>
       <c r="BP17" s="3">
         <f t="shared" si="31"/>
-        <v>146.73551677873755</v>
+        <v>142.79731613694958</v>
       </c>
       <c r="BQ17" s="3">
         <f t="shared" si="31"/>
-        <v>142.33345127537541</v>
+        <v>138.5133966528411</v>
       </c>
       <c r="BR17" s="3">
         <f t="shared" si="31"/>
-        <v>138.06344773711413</v>
+        <v>134.35799475325587</v>
       </c>
       <c r="BS17" s="3">
         <f t="shared" si="31"/>
-        <v>133.92154430500071</v>
+        <v>130.32725491065818</v>
       </c>
       <c r="BT17" s="3">
         <f t="shared" si="31"/>
-        <v>129.9038979758507</v>
+        <v>126.41743726333843</v>
       </c>
       <c r="BU17" s="3">
         <f t="shared" si="31"/>
-        <v>126.00678103657518</v>
+        <v>122.62491414543827</v>
       </c>
       <c r="BV17" s="3">
         <f t="shared" ref="BV17:DE17" si="32">BU17*(1+$L$20)</f>
-        <v>122.22657760547791</v>
+        <v>118.94616672107512</v>
       </c>
       <c r="BW17" s="3">
         <f t="shared" si="32"/>
-        <v>118.55978027731358</v>
+        <v>115.37778171944286</v>
       </c>
       <c r="BX17" s="3">
         <f t="shared" si="32"/>
-        <v>115.00298686899417</v>
+        <v>111.91644826785958</v>
       </c>
       <c r="BY17" s="3">
         <f t="shared" si="32"/>
-        <v>111.55289726292435</v>
+        <v>108.55895481982378</v>
       </c>
       <c r="BZ17" s="3">
         <f t="shared" si="32"/>
-        <v>108.20631034503661</v>
+        <v>105.30218617522907</v>
       </c>
       <c r="CA17" s="3">
         <f t="shared" si="32"/>
-        <v>104.96012103468551</v>
+        <v>102.1431205899722</v>
       </c>
       <c r="CB17" s="3">
         <f t="shared" si="32"/>
-        <v>101.81131740364495</v>
+        <v>99.078826972273035</v>
       </c>
       <c r="CC17" s="3">
         <f t="shared" si="32"/>
-        <v>98.756977881535605</v>
+        <v>96.106462163104837</v>
       </c>
       <c r="CD17" s="3">
         <f t="shared" si="32"/>
-        <v>95.794268545089537</v>
+        <v>93.223268298211693</v>
       </c>
       <c r="CE17" s="3">
         <f t="shared" si="32"/>
-        <v>92.920440488736844</v>
+        <v>90.426570249265339</v>
       </c>
       <c r="CF17" s="3">
         <f t="shared" si="32"/>
-        <v>90.132827274074742</v>
+        <v>87.713773141787371</v>
       </c>
       <c r="CG17" s="3">
         <f t="shared" si="32"/>
-        <v>87.428842455852504</v>
+        <v>85.082359947533746</v>
       </c>
       <c r="CH17" s="3">
         <f t="shared" si="32"/>
-        <v>84.805977182176932</v>
+        <v>82.529889149107731</v>
       </c>
       <c r="CI17" s="3">
         <f t="shared" si="32"/>
-        <v>82.261797866711618</v>
+        <v>80.053992474634498</v>
       </c>
       <c r="CJ17" s="3">
         <f t="shared" si="32"/>
-        <v>79.79394393071027</v>
+        <v>77.65237270039546</v>
       </c>
       <c r="CK17" s="3">
         <f t="shared" si="32"/>
-        <v>77.400125612788955</v>
+        <v>75.322801519383589</v>
       </c>
       <c r="CL17" s="3">
         <f t="shared" si="32"/>
-        <v>75.078121844405288</v>
+        <v>73.06311747380208</v>
       </c>
       <c r="CM17" s="3">
         <f t="shared" si="32"/>
-        <v>72.825778189073134</v>
+        <v>70.871223949588014</v>
       </c>
       <c r="CN17" s="3">
         <f t="shared" si="32"/>
-        <v>70.641004843400935</v>
+        <v>68.745087231100371</v>
       </c>
       <c r="CO17" s="3">
         <f t="shared" si="32"/>
-        <v>68.521774698098909</v>
+        <v>66.682734614167359</v>
       </c>
       <c r="CP17" s="3">
         <f t="shared" si="32"/>
-        <v>66.466121457155936</v>
+        <v>64.682252575742339</v>
       </c>
       <c r="CQ17" s="3">
         <f t="shared" si="32"/>
-        <v>64.47213781344125</v>
+        <v>62.741784998470067</v>
       </c>
       <c r="CR17" s="3">
         <f t="shared" si="32"/>
-        <v>62.537973679038011</v>
+        <v>60.859531448515966</v>
       </c>
       <c r="CS17" s="3">
         <f t="shared" si="32"/>
-        <v>60.661834468666868</v>
+        <v>59.033745505060487</v>
       </c>
       <c r="CT17" s="3">
         <f t="shared" si="32"/>
-        <v>58.841979434606863</v>
+        <v>57.262733139908669</v>
       </c>
       <c r="CU17" s="3">
         <f t="shared" si="32"/>
-        <v>57.076720051568657</v>
+        <v>55.544851145711405</v>
       </c>
       <c r="CV17" s="3">
         <f t="shared" si="32"/>
-        <v>55.364418450021596</v>
+        <v>53.87850561134006</v>
       </c>
       <c r="CW17" s="3">
         <f t="shared" si="32"/>
-        <v>53.703485896520945</v>
+        <v>52.262150442999854</v>
       </c>
       <c r="CX17" s="3">
         <f t="shared" si="32"/>
-        <v>52.092381319625318</v>
+        <v>50.694285929709856</v>
       </c>
       <c r="CY17" s="3">
         <f t="shared" si="32"/>
-        <v>50.52960988003656</v>
+        <v>49.173457351818563</v>
       </c>
       <c r="CZ17" s="3">
         <f t="shared" si="32"/>
-        <v>49.013721583635459</v>
+        <v>47.698253631264002</v>
       </c>
       <c r="DA17" s="3">
         <f t="shared" si="32"/>
-        <v>47.543309936126391</v>
+        <v>46.267306022326082</v>
       </c>
       <c r="DB17" s="3">
         <f t="shared" si="32"/>
-        <v>46.117010638042601</v>
+        <v>44.879286841656295</v>
       </c>
       <c r="DC17" s="3">
         <f t="shared" si="32"/>
-        <v>44.733500318901321</v>
+        <v>43.532908236406605</v>
       </c>
       <c r="DD17" s="3">
         <f t="shared" si="32"/>
-        <v>43.391495309334282</v>
+        <v>42.226920989314408</v>
       </c>
       <c r="DE17" s="3">
         <f t="shared" si="32"/>
-        <v>42.089750450054254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+        <v>40.960113359634974</v>
+      </c>
+    </row>
+    <row r="18" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>140.6</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>134.19999999999999</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>129.4</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>129.4</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>129.4</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>129.4</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>129.4</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>129.4</v>
       </c>
     </row>
-    <row r="19" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <f>B17/B18</f>
         <v>1.4569701280227589</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <f t="shared" ref="C19:D19" si="33">C17/C18</f>
         <v>1.9980625931445612</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <f t="shared" si="33"/>
         <v>3.4318469860896439</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <f t="shared" ref="E19" si="34">E17/E18</f>
-        <v>3.7897363827806303</v>
-      </c>
-      <c r="F19" s="5">
+        <v>3.9075018170928413</v>
+      </c>
+      <c r="F19" s="4">
         <f t="shared" ref="F19" si="35">F17/F18</f>
-        <v>4.3394144668502168</v>
-      </c>
-      <c r="G19" s="5">
+        <v>4.4010234540387589</v>
+      </c>
+      <c r="G19" s="4">
         <f t="shared" ref="G19" si="36">G17/G18</f>
-        <v>5.1563923417812001</v>
-      </c>
-      <c r="H19" s="5">
+        <v>5.1513854243886668</v>
+      </c>
+      <c r="H19" s="4">
         <f t="shared" ref="H19" si="37">H17/H18</f>
-        <v>5.9625725699699084</v>
-      </c>
-      <c r="I19" s="5">
+        <v>5.8759364349876284</v>
+      </c>
+      <c r="I19" s="4">
         <f t="shared" ref="I19" si="38">I17/I18</f>
-        <v>6.8401976007006269</v>
-      </c>
-      <c r="K19" s="2" t="s">
+        <v>6.656615117247382</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="8">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="K20" s="2" t="s">
+      <c r="L19" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="K20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="5">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:110" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1599,15 +1616,15 @@
         <f t="shared" si="39"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="5">
         <v>0.09</v>
       </c>
     </row>
-    <row r="22" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:110" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="7">
@@ -1645,17 +1662,17 @@
         <v>6248.1668228775579</v>
       </c>
     </row>
-    <row r="23" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="K23" s="2" t="s">
+    <row r="23" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="K23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="1">
         <f>L22/Sheet1!D3</f>
         <v>50.734994867177882</v>
       </c>
     </row>
-    <row r="24" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="7">
@@ -1685,7 +1702,7 @@
       <c r="I24" s="7">
         <v>0.8</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L24" s="7">
@@ -1693,7 +1710,7 @@
         <v>-0.1709968158957863</v>
       </c>
     </row>
-    <row r="25" spans="1:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:110" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1730,8 +1747,8 @@
         <v>0.61341143468869641</v>
       </c>
     </row>
-    <row r="26" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="7">
@@ -1767,35 +1784,35 @@
         <v>0.50934722996141135</v>
       </c>
     </row>
-    <row r="28" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>240.1</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>388.6</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>479.1</v>
       </c>
     </row>
-    <row r="29" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>4.8</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>15.3</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>10.7</v>
       </c>
     </row>
-    <row r="30" spans="1:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:110" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2236,49 +2253,49 @@
         <v>39.405099780295693</v>
       </c>
     </row>
-    <row r="32" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <f>D34-D36</f>
         <v>-964.48400000000004</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <f>D32+E17</f>
-        <v>-474.09211206818645</v>
-      </c>
-      <c r="F32" s="2">
+        <v>-458.85326486818633</v>
+      </c>
+      <c r="F32" s="1">
         <f t="shared" ref="F32:I32" si="48">E32+F17</f>
-        <v>87.42811994223166</v>
-      </c>
-      <c r="G32" s="2">
+        <v>110.63917008442911</v>
+      </c>
+      <c r="G32" s="1">
         <f t="shared" si="48"/>
-        <v>754.66528896871898</v>
-      </c>
-      <c r="H32" s="2">
+        <v>777.22844400032261</v>
+      </c>
+      <c r="H32" s="1">
         <f t="shared" si="48"/>
-        <v>1526.2221795228252</v>
-      </c>
-      <c r="I32" s="2">
+        <v>1537.5746186877218</v>
+      </c>
+      <c r="I32" s="1">
         <f t="shared" si="48"/>
-        <v>2411.3437490534861</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+        <v>2398.9406148595331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <f>115.85+480.224</f>
         <v>596.07399999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <f>54.758+1505.8</f>
         <v>1560.558</v>
       </c>

--- a/HALO.xlsx
+++ b/HALO.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32DE996-7016-45E0-A740-4EC536AE6CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEFFFEB-9170-4DE1-AABE-08A378C1832E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="285" windowWidth="21945" windowHeight="14610" activeTab="1" xr2:uid="{09F161B0-F89E-4C8B-8031-C3ED112ACB2C}"/>
+    <workbookView xWindow="1575" yWindow="525" windowWidth="21945" windowHeight="13935" activeTab="1" xr2:uid="{09F161B0-F89E-4C8B-8031-C3ED112ACB2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>Price</t>
   </si>
@@ -151,19 +152,94 @@
   </si>
   <si>
     <t>Main</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>MOA</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>CCO</t>
+  </si>
+  <si>
+    <t>Herceptin SC</t>
+  </si>
+  <si>
+    <t>Mabthera SC</t>
+  </si>
+  <si>
+    <t>Phesgo</t>
+  </si>
+  <si>
+    <t>Darzalex Faspro/SC</t>
+  </si>
+  <si>
+    <t>HyQuiva 10%</t>
+  </si>
+  <si>
+    <t>Tecentriq SC</t>
+  </si>
+  <si>
+    <t>Ocrelizumab SC</t>
+  </si>
+  <si>
+    <t>VYVGART Hytrulo</t>
+  </si>
+  <si>
+    <t>expire 9/30</t>
+  </si>
+  <si>
+    <t>expire 7/30</t>
+  </si>
+  <si>
+    <t>mid-single digit royalty</t>
+  </si>
+  <si>
+    <t>27 usa 29 eu</t>
+  </si>
+  <si>
+    <t>expire 12/40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -202,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -210,23 +286,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -243,6 +392,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4FC21A-0197-17E9-44E0-49C535E145C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3531577" y="0"/>
+          <a:ext cx="14654" cy="8242788"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,80 +766,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5888AE-3565-48BC-80C7-C570B89CEA73}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="3.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="10" customWidth="1"/>
+    <col min="7" max="8" width="10.5703125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="4" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O2" s="10" t="s">
+      <c r="E1" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O3" s="10" t="s">
+      <c r="L2" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="15"/>
+      <c r="K3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="1">
+      <c r="L3" s="1">
         <v>123.15300000000001</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O4" s="10" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15"/>
+      <c r="K4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="1">
-        <f>P3*P2</f>
-        <v>6650.2620000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O5" s="10" t="s">
+      <c r="L4" s="1">
+        <f>L3*L2</f>
+        <v>6403.9560000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="15"/>
+      <c r="K5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="1">
+      <c r="L5" s="1">
         <f>115.85+480.224</f>
         <v>596.07399999999996</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O6" s="10" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="15"/>
+      <c r="K6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="1">
+      <c r="L6" s="1">
         <f>54.758+1505.8</f>
         <v>1560.558</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O7" s="10" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="15"/>
+      <c r="K7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="1">
-        <f>P4+P6-P5</f>
-        <v>7614.7460000000001</v>
-      </c>
+      <c r="L7" s="1">
+        <f>L4+L6-L5</f>
+        <v>7368.4400000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="15"/>
+      <c r="K9" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="15"/>
+      <c r="K10" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -648,10 +999,10 @@
   <dimension ref="A1:DG35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -733,7 +1084,16 @@
         <v>570.99</v>
       </c>
       <c r="F3" s="1">
-        <v>740</v>
+        <v>770</v>
+      </c>
+      <c r="G3" s="1">
+        <v>920</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1125</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1175</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -749,6 +1109,18 @@
       <c r="E4" s="1">
         <v>303.49200000000002</v>
       </c>
+      <c r="F4" s="1">
+        <v>350</v>
+      </c>
+      <c r="G4" s="1">
+        <v>420</v>
+      </c>
+      <c r="H4" s="1">
+        <v>450</v>
+      </c>
+      <c r="I4" s="1">
+        <v>485</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -763,6 +1135,18 @@
       <c r="E5" s="1">
         <v>140.84</v>
       </c>
+      <c r="F5" s="1">
+        <v>120</v>
+      </c>
+      <c r="G5" s="1">
+        <v>145</v>
+      </c>
+      <c r="H5" s="1">
+        <v>145</v>
+      </c>
+      <c r="I5" s="1">
+        <v>145</v>
+      </c>
     </row>
     <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -773,7 +1157,7 @@
         <v>660.14</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:E6" si="6">SUM(D3:D5)</f>
+        <f t="shared" ref="D6:I6" si="6">SUM(D3:D5)</f>
         <v>829.22</v>
       </c>
       <c r="E6" s="3">
@@ -781,43 +1165,44 @@
         <v>1015.322</v>
       </c>
       <c r="F6" s="3">
-        <v>1200</v>
+        <f t="shared" si="6"/>
+        <v>1240</v>
       </c>
       <c r="G6" s="3">
-        <f>F6*1.07</f>
-        <v>1284</v>
+        <f t="shared" si="6"/>
+        <v>1485</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" ref="H6:J6" si="7">G6*1.07</f>
-        <v>1373.88</v>
+        <f t="shared" si="6"/>
+        <v>1720</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="7"/>
-        <v>1470.0516000000002</v>
+        <f t="shared" si="6"/>
+        <v>1805</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="7"/>
-        <v>1572.9552120000003</v>
+        <f>I6*1.03</f>
+        <v>1859.15</v>
       </c>
       <c r="K6" s="3">
-        <f>J6*1.03</f>
-        <v>1620.1438683600004</v>
+        <f t="shared" ref="K6:O6" si="7">J6*1.01</f>
+        <v>1877.7415000000001</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" ref="L6:O6" si="8">K6*1.03</f>
-        <v>1668.7481844108004</v>
+        <f>K6*0.99</f>
+        <v>1858.9640850000001</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="8"/>
-        <v>1718.8106299431245</v>
+        <f t="shared" ref="M6:O6" si="8">L6*0.99</f>
+        <v>1840.37444415</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="8"/>
-        <v>1770.3749488414182</v>
+        <v>1821.9706997085</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="8"/>
-        <v>1823.4861973066609</v>
+        <v>1803.7509927114149</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -834,44 +1219,44 @@
         <v>159.4</v>
       </c>
       <c r="F7" s="1">
-        <f>F6*(1-F24)</f>
-        <v>192.00000000000003</v>
+        <f t="shared" ref="F7:O7" si="9">F6*(1-F24)</f>
+        <v>247.99999999999994</v>
       </c>
       <c r="G7" s="1">
-        <f>G6*(1-G24)</f>
-        <v>256.79999999999995</v>
+        <f t="shared" si="9"/>
+        <v>296.99999999999994</v>
       </c>
       <c r="H7" s="1">
-        <f>H6*(1-H24)</f>
-        <v>274.77599999999995</v>
+        <f t="shared" si="9"/>
+        <v>343.99999999999994</v>
       </c>
       <c r="I7" s="1">
-        <f>I6*(1-I24)</f>
-        <v>294.01031999999998</v>
+        <f t="shared" si="9"/>
+        <v>360.99999999999994</v>
       </c>
       <c r="J7" s="1">
-        <f>J6*(1-J24)</f>
-        <v>314.59104239999999</v>
+        <f t="shared" si="9"/>
+        <v>371.82999999999993</v>
       </c>
       <c r="K7" s="1">
-        <f>K6*(1-K24)</f>
-        <v>324.028773672</v>
+        <f t="shared" si="9"/>
+        <v>375.54829999999993</v>
       </c>
       <c r="L7" s="1">
-        <f>L6*(1-L24)</f>
-        <v>333.74963688216002</v>
+        <f t="shared" si="9"/>
+        <v>371.79281699999996</v>
       </c>
       <c r="M7" s="1">
-        <f>M6*(1-M24)</f>
-        <v>343.7621259886248</v>
+        <f t="shared" si="9"/>
+        <v>368.07488882999991</v>
       </c>
       <c r="N7" s="1">
-        <f>N6*(1-N24)</f>
-        <v>354.07498976828356</v>
+        <f t="shared" si="9"/>
+        <v>364.3941399416999</v>
       </c>
       <c r="O7" s="1">
-        <f>O6*(1-O24)</f>
-        <v>364.69723946133212</v>
+        <f t="shared" si="9"/>
+        <v>360.75019854228293</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -883,52 +1268,52 @@
         <v>520.83999999999992</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" ref="D8:E8" si="9">D6-D7</f>
+        <f t="shared" ref="D8:E8" si="10">D6-D7</f>
         <v>636.82000000000005</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>855.92200000000003</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" ref="F8" si="10">F6-F7</f>
-        <v>1008</v>
+        <f t="shared" ref="F8" si="11">F6-F7</f>
+        <v>992</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ref="G8" si="11">G6-G7</f>
-        <v>1027.2</v>
+        <f t="shared" ref="G8" si="12">G6-G7</f>
+        <v>1188</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8" si="12">H6-H7</f>
-        <v>1099.1040000000003</v>
+        <f t="shared" ref="H8" si="13">H6-H7</f>
+        <v>1376</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" ref="I8" si="13">I6-I7</f>
-        <v>1176.0412800000004</v>
+        <f t="shared" ref="I8" si="14">I6-I7</f>
+        <v>1444</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" ref="J8:O8" si="14">J6-J7</f>
-        <v>1258.3641696000004</v>
+        <f t="shared" ref="J8:O8" si="15">J6-J7</f>
+        <v>1487.3200000000002</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="14"/>
-        <v>1296.1150946880005</v>
+        <f t="shared" si="15"/>
+        <v>1502.1932000000002</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="14"/>
-        <v>1334.9985475286403</v>
+        <f t="shared" si="15"/>
+        <v>1487.1712680000001</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="14"/>
-        <v>1375.0485039544997</v>
+        <f t="shared" si="15"/>
+        <v>1472.2995553200001</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="14"/>
-        <v>1416.2999590731347</v>
+        <f t="shared" si="15"/>
+        <v>1457.5765597668001</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="14"/>
-        <v>1458.7889578453287</v>
+        <f t="shared" si="15"/>
+        <v>1443.000794169132</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -958,6 +1343,7 @@
       <c r="E10" s="1">
         <v>79.099999999999994</v>
       </c>
+      <c r="F10" s="5"/>
       <c r="Q10" s="1" t="s">
         <v>31</v>
       </c>
@@ -979,44 +1365,44 @@
         <v>154.30000000000001</v>
       </c>
       <c r="F11" s="1">
-        <f>E11*1.04</f>
-        <v>160.47200000000001</v>
+        <f>E11*1.03</f>
+        <v>158.929</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ref="G11:J11" si="15">F11*1.04</f>
-        <v>166.89088000000001</v>
+        <f t="shared" ref="G11:O11" si="16">F11*1.03</f>
+        <v>163.69687000000002</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="15"/>
-        <v>173.56651520000003</v>
+        <f t="shared" si="16"/>
+        <v>168.60777610000002</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="15"/>
-        <v>180.50917580800004</v>
+        <f t="shared" si="16"/>
+        <v>173.66600938300002</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="15"/>
-        <v>187.72954284032005</v>
+        <f t="shared" si="16"/>
+        <v>178.87598966449002</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" ref="K11:O11" si="16">J11*1.04</f>
-        <v>195.23872455393285</v>
+        <f t="shared" si="16"/>
+        <v>184.24226935442474</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="16"/>
-        <v>203.04827353609016</v>
+        <v>189.76953743505749</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="16"/>
-        <v>211.17020447753379</v>
+        <v>195.46262355810921</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="16"/>
-        <v>219.61701265663515</v>
+        <v>201.32650226485251</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="16"/>
-        <v>228.40169316290056</v>
+        <v>207.3662973327981</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>32</v>
@@ -1043,43 +1429,43 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="17"/>
-        <v>160.47200000000001</v>
+        <v>158.929</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="17"/>
-        <v>166.89088000000001</v>
+        <v>163.69687000000002</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="17"/>
-        <v>173.56651520000003</v>
+        <v>168.60777610000002</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="17"/>
-        <v>180.50917580800004</v>
+        <v>173.66600938300002</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="17"/>
-        <v>187.72954284032005</v>
+        <v>178.87598966449002</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ref="K12:O12" si="18">SUM(K9:K11)</f>
-        <v>195.23872455393285</v>
+        <v>184.24226935442474</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="18"/>
-        <v>203.04827353609016</v>
+        <v>189.76953743505749</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="18"/>
-        <v>211.17020447753379</v>
+        <v>195.46262355810921</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="18"/>
-        <v>219.61701265663515</v>
+        <v>201.32650226485251</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="18"/>
-        <v>228.40169316290056</v>
+        <v>207.3662973327981</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>33</v>
@@ -1106,50 +1492,50 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" ref="F13" si="20">F8-F12</f>
-        <v>847.52800000000002</v>
+        <v>833.07100000000003</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ref="G13" si="21">G8-G12</f>
-        <v>860.30912000000001</v>
+        <v>1024.30313</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" ref="H13" si="22">H8-H12</f>
-        <v>925.53748480000024</v>
+        <v>1207.3922238999999</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ref="I13" si="23">I8-I12</f>
-        <v>995.53210419200036</v>
+        <v>1270.3339906169999</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ref="J13:O13" si="24">J8-J12</f>
-        <v>1070.6346267596805</v>
+        <v>1308.44401033551</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="24"/>
-        <v>1100.8763701340677</v>
+        <v>1317.9509306455755</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="24"/>
-        <v>1131.9502739925501</v>
+        <v>1297.4017305649427</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="24"/>
-        <v>1163.8782994769658</v>
+        <v>1276.8369317618908</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="24"/>
-        <v>1196.6829464164996</v>
+        <v>1256.2500575019476</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="24"/>
-        <v>1230.3872646824282</v>
+        <v>1235.6344968363339</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>34</v>
       </c>
       <c r="R13" s="3">
-        <f>NPV(R12,F18:XFD18)+Main!P5-Main!P6</f>
-        <v>9048.3455627447183</v>
+        <f>NPV(R12,F18:XFD18)+Main!L5-Main!L6</f>
+        <v>10003.314645581675</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1169,8 +1555,8 @@
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <f>R13/Main!P3</f>
-        <v>73.472392574640637</v>
+        <f>R13/Main!L3</f>
+        <v>81.226723227056382</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1187,51 +1573,51 @@
         <v>-18.100000000000001</v>
       </c>
       <c r="F15" s="1">
-        <f>E32*$R$10</f>
+        <f t="shared" ref="F15:O15" si="25">E32*$R$10</f>
         <v>-19.289680000000001</v>
       </c>
       <c r="G15" s="1">
-        <f>F32*$R$10</f>
-        <v>-6.0378668799999993</v>
+        <f t="shared" si="25"/>
+        <v>-6.2691788799999992</v>
       </c>
       <c r="H15" s="1">
-        <f>G32*$R$10</f>
-        <v>7.630473169920001</v>
+        <f t="shared" si="25"/>
+        <v>10.019364337920001</v>
       </c>
       <c r="I15" s="1">
-        <f>H32*$R$10</f>
-        <v>22.561160497438724</v>
+        <f t="shared" si="25"/>
+        <v>29.497949749726722</v>
       </c>
       <c r="J15" s="1">
-        <f>I32*$R$10</f>
-        <v>38.850652732469747</v>
+        <f t="shared" si="25"/>
+        <v>50.295260795594352</v>
       </c>
       <c r="K15" s="1">
-        <f>J32*$R$10</f>
-        <v>56.602417204344157</v>
+        <f t="shared" si="25"/>
+        <v>72.035089133692026</v>
       </c>
       <c r="L15" s="1">
-        <f>K32*$R$10</f>
-        <v>75.122077801758749</v>
+        <f t="shared" si="25"/>
+        <v>94.274865450160291</v>
       </c>
       <c r="M15" s="1">
-        <f>L32*$R$10</f>
-        <v>94.435235430467699</v>
+        <f t="shared" si="25"/>
+        <v>116.54169098640193</v>
       </c>
       <c r="N15" s="1">
-        <f>M32*$R$10</f>
-        <v>114.56825198898663</v>
+        <f t="shared" si="25"/>
+        <v>138.83574895037461</v>
       </c>
       <c r="O15" s="1">
-        <f>N32*$R$10</f>
-        <v>135.54827116347442</v>
+        <f t="shared" si="25"/>
+        <v>161.15712185361178</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R15" s="5">
-        <f>R14/Main!P2-1</f>
-        <v>0.36059986249334508</v>
+        <f>R14/Main!L2-1</f>
+        <v>0.56205236975108419</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1243,52 +1629,52 @@
         <v>251.64999999999992</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ref="D16:E16" si="25">D13+SUM(D14:D15)</f>
+        <f t="shared" ref="D16:E16" si="26">D13+SUM(D14:D15)</f>
         <v>334.84000000000009</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>557.12199999999996</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" ref="F16" si="26">F13+SUM(F14:F15)</f>
-        <v>828.23832000000004</v>
+        <f t="shared" ref="F16" si="27">F13+SUM(F14:F15)</f>
+        <v>813.78132000000005</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ref="G16" si="27">G13+SUM(G14:G15)</f>
-        <v>854.27125311999998</v>
+        <f t="shared" ref="G16" si="28">G13+SUM(G14:G15)</f>
+        <v>1018.03395112</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" ref="H16" si="28">H13+SUM(H14:H15)</f>
-        <v>933.16795796992028</v>
+        <f t="shared" ref="H16" si="29">H13+SUM(H14:H15)</f>
+        <v>1217.4115882379199</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ref="I16" si="29">I13+SUM(I14:I15)</f>
-        <v>1018.0932646894391</v>
+        <f t="shared" ref="I16" si="30">I13+SUM(I14:I15)</f>
+        <v>1299.8319403667267</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" ref="J16:O16" si="30">J13+SUM(J14:J15)</f>
-        <v>1109.4852794921503</v>
+        <f t="shared" ref="J16:O16" si="31">J13+SUM(J14:J15)</f>
+        <v>1358.7392711311045</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="30"/>
-        <v>1157.4787873384118</v>
+        <f t="shared" si="31"/>
+        <v>1389.9860197792675</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="30"/>
-        <v>1207.0723517943088</v>
+        <f t="shared" si="31"/>
+        <v>1391.6765960151029</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="30"/>
-        <v>1258.3135349074334</v>
+        <f t="shared" si="31"/>
+        <v>1393.3786227482929</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="30"/>
-        <v>1311.2511984054863</v>
+        <f t="shared" si="31"/>
+        <v>1395.0858064523222</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="30"/>
-        <v>1365.9355358459027</v>
+        <f t="shared" si="31"/>
+        <v>1396.7916186899456</v>
       </c>
     </row>
     <row r="17" spans="1:111" x14ac:dyDescent="0.2">
@@ -1306,43 +1692,43 @@
       </c>
       <c r="F17" s="1">
         <f>F16*0.2</f>
-        <v>165.64766400000002</v>
+        <v>162.75626400000002</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ref="G17:O17" si="31">G16*0.2</f>
-        <v>170.854250624</v>
+        <f t="shared" ref="G17:O17" si="32">G16*0.2</f>
+        <v>203.60679022400001</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="31"/>
-        <v>186.63359159398408</v>
+        <f t="shared" si="32"/>
+        <v>243.48231764758398</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="31"/>
-        <v>203.61865293788784</v>
+        <f t="shared" si="32"/>
+        <v>259.96638807334534</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="31"/>
-        <v>221.89705589843007</v>
+        <f t="shared" si="32"/>
+        <v>271.74785422622091</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="31"/>
-        <v>231.49575746768238</v>
+        <f t="shared" si="32"/>
+        <v>277.99720395585354</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="31"/>
-        <v>241.41447035886176</v>
+        <f t="shared" si="32"/>
+        <v>278.33531920302056</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="31"/>
-        <v>251.66270698148671</v>
+        <f t="shared" si="32"/>
+        <v>278.67572454965858</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="31"/>
-        <v>262.2502396810973</v>
+        <f t="shared" si="32"/>
+        <v>279.01716129046446</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="31"/>
-        <v>273.18710716918054</v>
+        <f t="shared" si="32"/>
+        <v>279.35832373798911</v>
       </c>
     </row>
     <row r="18" spans="1:111" x14ac:dyDescent="0.2">
@@ -1355,432 +1741,432 @@
         <v>204.84999999999991</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ref="D18:E18" si="32">D16-D17</f>
+        <f t="shared" ref="D18:E18" si="33">D16-D17</f>
         <v>268.1400000000001</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>444.08099999999996</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" ref="F18" si="33">F16-F17</f>
-        <v>662.59065600000008</v>
+        <f t="shared" ref="F18" si="34">F16-F17</f>
+        <v>651.02505600000006</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" ref="G18" si="34">G16-G17</f>
-        <v>683.41700249600001</v>
+        <f t="shared" ref="G18" si="35">G16-G17</f>
+        <v>814.42716089600003</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" ref="H18" si="35">H16-H17</f>
-        <v>746.5343663759362</v>
+        <f t="shared" ref="H18" si="36">H16-H17</f>
+        <v>973.92927059033593</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" ref="I18" si="36">I16-I17</f>
-        <v>814.47461175155127</v>
+        <f t="shared" ref="I18" si="37">I16-I17</f>
+        <v>1039.8655522933814</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" ref="J18:O18" si="37">J16-J17</f>
-        <v>887.58822359372027</v>
+        <f t="shared" ref="J18:O18" si="38">J16-J17</f>
+        <v>1086.9914169048836</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="37"/>
-        <v>925.98302987072952</v>
+        <f t="shared" si="38"/>
+        <v>1111.9888158234139</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="37"/>
-        <v>965.65788143544705</v>
+        <f t="shared" si="38"/>
+        <v>1113.3412768120822</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="37"/>
-        <v>1006.6508279259467</v>
+        <f t="shared" si="38"/>
+        <v>1114.7028981986343</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="37"/>
-        <v>1049.000958724389</v>
+        <f t="shared" si="38"/>
+        <v>1116.0686451618578</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="37"/>
-        <v>1092.7484286767221</v>
+        <f t="shared" si="38"/>
+        <v>1117.4332949519564</v>
       </c>
       <c r="P18" s="1">
-        <f>O18*(1+$R$11)</f>
-        <v>1081.820944389955</v>
+        <f t="shared" ref="P18:AU18" si="39">O18*(1+$R$11)</f>
+        <v>1106.2589620024369</v>
       </c>
       <c r="Q18" s="1">
-        <f>P18*(1+$R$11)</f>
-        <v>1071.0027349460554</v>
+        <f t="shared" si="39"/>
+        <v>1095.1963723824124</v>
       </c>
       <c r="R18" s="1">
-        <f>Q18*(1+$R$11)</f>
-        <v>1060.2927075965949</v>
+        <f t="shared" si="39"/>
+        <v>1084.2444086585883</v>
       </c>
       <c r="S18" s="1">
-        <f>R18*(1+$R$11)</f>
-        <v>1049.689780520629</v>
+        <f t="shared" si="39"/>
+        <v>1073.4019645720025</v>
       </c>
       <c r="T18" s="1">
-        <f>S18*(1+$R$11)</f>
-        <v>1039.1928827154227</v>
+        <f t="shared" si="39"/>
+        <v>1062.6679449262824</v>
       </c>
       <c r="U18" s="1">
-        <f>T18*(1+$R$11)</f>
-        <v>1028.8009538882684</v>
+        <f t="shared" si="39"/>
+        <v>1052.0412654770196</v>
       </c>
       <c r="V18" s="1">
-        <f>U18*(1+$R$11)</f>
-        <v>1018.5129443493857</v>
+        <f t="shared" si="39"/>
+        <v>1041.5208528222495</v>
       </c>
       <c r="W18" s="1">
-        <f>V18*(1+$R$11)</f>
-        <v>1008.3278149058918</v>
+        <f t="shared" si="39"/>
+        <v>1031.1056442940269</v>
       </c>
       <c r="X18" s="1">
-        <f>W18*(1+$R$11)</f>
-        <v>998.24453675683287</v>
+        <f t="shared" si="39"/>
+        <v>1020.7945878510866</v>
       </c>
       <c r="Y18" s="1">
-        <f>X18*(1+$R$11)</f>
-        <v>988.26209138926458</v>
+        <f t="shared" si="39"/>
+        <v>1010.5866419725758</v>
       </c>
       <c r="Z18" s="1">
-        <f>Y18*(1+$R$11)</f>
-        <v>978.37947047537193</v>
+        <f t="shared" si="39"/>
+        <v>1000.48077555285</v>
       </c>
       <c r="AA18" s="1">
-        <f>Z18*(1+$R$11)</f>
-        <v>968.59567577061819</v>
+        <f t="shared" si="39"/>
+        <v>990.47596779732146</v>
       </c>
       <c r="AB18" s="1">
-        <f>AA18*(1+$R$11)</f>
-        <v>958.90971901291198</v>
+        <f t="shared" si="39"/>
+        <v>980.57120811934828</v>
       </c>
       <c r="AC18" s="1">
-        <f>AB18*(1+$R$11)</f>
-        <v>949.32062182278287</v>
+        <f t="shared" si="39"/>
+        <v>970.76549603815477</v>
       </c>
       <c r="AD18" s="1">
-        <f>AC18*(1+$R$11)</f>
-        <v>939.82741560455509</v>
+        <f t="shared" si="39"/>
+        <v>961.05784107777322</v>
       </c>
       <c r="AE18" s="1">
-        <f>AD18*(1+$R$11)</f>
-        <v>930.42914144850954</v>
+        <f t="shared" si="39"/>
+        <v>951.44726266699547</v>
       </c>
       <c r="AF18" s="1">
-        <f>AE18*(1+$R$11)</f>
-        <v>921.12485003402446</v>
+        <f t="shared" si="39"/>
+        <v>941.93279004032547</v>
       </c>
       <c r="AG18" s="1">
-        <f>AF18*(1+$R$11)</f>
-        <v>911.91360153368419</v>
+        <f t="shared" si="39"/>
+        <v>932.51346213992224</v>
       </c>
       <c r="AH18" s="1">
-        <f>AG18*(1+$R$11)</f>
-        <v>902.79446551834735</v>
+        <f t="shared" si="39"/>
+        <v>923.18832751852301</v>
       </c>
       <c r="AI18" s="1">
-        <f>AH18*(1+$R$11)</f>
-        <v>893.76652086316392</v>
+        <f t="shared" si="39"/>
+        <v>913.95644424333773</v>
       </c>
       <c r="AJ18" s="1">
-        <f>AI18*(1+$R$11)</f>
-        <v>884.82885565453228</v>
+        <f t="shared" si="39"/>
+        <v>904.8168798009043</v>
       </c>
       <c r="AK18" s="1">
-        <f>AJ18*(1+$R$11)</f>
-        <v>875.98056709798698</v>
+        <f t="shared" si="39"/>
+        <v>895.7687110028952</v>
       </c>
       <c r="AL18" s="1">
-        <f>AK18*(1+$R$11)</f>
-        <v>867.22076142700712</v>
+        <f t="shared" si="39"/>
+        <v>886.81102389286627</v>
       </c>
       <c r="AM18" s="1">
-        <f>AL18*(1+$R$11)</f>
-        <v>858.54855381273705</v>
+        <f t="shared" si="39"/>
+        <v>877.94291365393758</v>
       </c>
       <c r="AN18" s="1">
-        <f>AM18*(1+$R$11)</f>
-        <v>849.96306827460967</v>
+        <f t="shared" si="39"/>
+        <v>869.16348451739816</v>
       </c>
       <c r="AO18" s="1">
-        <f>AN18*(1+$R$11)</f>
-        <v>841.46343759186357</v>
+        <f t="shared" si="39"/>
+        <v>860.47184967222415</v>
       </c>
       <c r="AP18" s="1">
-        <f>AO18*(1+$R$11)</f>
-        <v>833.04880321594487</v>
+        <f t="shared" si="39"/>
+        <v>851.86713117550187</v>
       </c>
       <c r="AQ18" s="1">
-        <f>AP18*(1+$R$11)</f>
-        <v>824.71831518378542</v>
+        <f t="shared" si="39"/>
+        <v>843.34845986374683</v>
       </c>
       <c r="AR18" s="1">
-        <f>AQ18*(1+$R$11)</f>
-        <v>816.4711320319476</v>
+        <f t="shared" si="39"/>
+        <v>834.91497526510932</v>
       </c>
       <c r="AS18" s="1">
-        <f>AR18*(1+$R$11)</f>
-        <v>808.30642071162811</v>
+        <f t="shared" si="39"/>
+        <v>826.56582551245822</v>
       </c>
       <c r="AT18" s="1">
-        <f>AS18*(1+$R$11)</f>
-        <v>800.2233565045118</v>
+        <f t="shared" si="39"/>
+        <v>818.30016725733367</v>
       </c>
       <c r="AU18" s="1">
-        <f>AT18*(1+$R$11)</f>
-        <v>792.22112293946668</v>
+        <f t="shared" si="39"/>
+        <v>810.1171655847603</v>
       </c>
       <c r="AV18" s="1">
-        <f>AU18*(1+$R$11)</f>
-        <v>784.29891171007205</v>
+        <f t="shared" ref="AV18:CA18" si="40">AU18*(1+$R$11)</f>
+        <v>802.01599392891274</v>
       </c>
       <c r="AW18" s="1">
-        <f>AV18*(1+$R$11)</f>
-        <v>776.45592259297132</v>
+        <f t="shared" si="40"/>
+        <v>793.99583398962363</v>
       </c>
       <c r="AX18" s="1">
-        <f>AW18*(1+$R$11)</f>
-        <v>768.69136336704162</v>
+        <f t="shared" si="40"/>
+        <v>786.05587564972734</v>
       </c>
       <c r="AY18" s="1">
-        <f>AX18*(1+$R$11)</f>
-        <v>761.00444973337119</v>
+        <f t="shared" si="40"/>
+        <v>778.19531689323003</v>
       </c>
       <c r="AZ18" s="1">
-        <f>AY18*(1+$R$11)</f>
-        <v>753.39440523603741</v>
+        <f t="shared" si="40"/>
+        <v>770.41336372429771</v>
       </c>
       <c r="BA18" s="1">
-        <f>AZ18*(1+$R$11)</f>
-        <v>745.86046118367699</v>
+        <f t="shared" si="40"/>
+        <v>762.70923008705472</v>
       </c>
       <c r="BB18" s="1">
-        <f>BA18*(1+$R$11)</f>
-        <v>738.4018565718402</v>
+        <f t="shared" si="40"/>
+        <v>755.08213778618415</v>
       </c>
       <c r="BC18" s="1">
-        <f>BB18*(1+$R$11)</f>
-        <v>731.01783800612179</v>
+        <f t="shared" si="40"/>
+        <v>747.53131640832225</v>
       </c>
       <c r="BD18" s="1">
-        <f>BC18*(1+$R$11)</f>
-        <v>723.7076596260606</v>
+        <f t="shared" si="40"/>
+        <v>740.05600324423904</v>
       </c>
       <c r="BE18" s="1">
-        <f>BD18*(1+$R$11)</f>
-        <v>716.47058302979997</v>
+        <f t="shared" si="40"/>
+        <v>732.65544321179664</v>
       </c>
       <c r="BF18" s="1">
-        <f>BE18*(1+$R$11)</f>
-        <v>709.30587719950199</v>
+        <f t="shared" si="40"/>
+        <v>725.32888877967866</v>
       </c>
       <c r="BG18" s="1">
-        <f>BF18*(1+$R$11)</f>
-        <v>702.21281842750693</v>
+        <f t="shared" si="40"/>
+        <v>718.07559989188189</v>
       </c>
       <c r="BH18" s="1">
-        <f>BG18*(1+$R$11)</f>
-        <v>695.19069024323187</v>
+        <f t="shared" si="40"/>
+        <v>710.89484389296308</v>
       </c>
       <c r="BI18" s="1">
-        <f>BH18*(1+$R$11)</f>
-        <v>688.2387833407995</v>
+        <f t="shared" si="40"/>
+        <v>703.78589545403349</v>
       </c>
       <c r="BJ18" s="1">
-        <f>BI18*(1+$R$11)</f>
-        <v>681.35639550739154</v>
+        <f t="shared" si="40"/>
+        <v>696.7480364994932</v>
       </c>
       <c r="BK18" s="1">
-        <f>BJ18*(1+$R$11)</f>
-        <v>674.54283155231758</v>
+        <f t="shared" si="40"/>
+        <v>689.78055613449828</v>
       </c>
       <c r="BL18" s="1">
-        <f>BK18*(1+$R$11)</f>
-        <v>667.79740323679437</v>
+        <f t="shared" si="40"/>
+        <v>682.88275057315332</v>
       </c>
       <c r="BM18" s="1">
-        <f>BL18*(1+$R$11)</f>
-        <v>661.11942920442641</v>
+        <f t="shared" si="40"/>
+        <v>676.05392306742181</v>
       </c>
       <c r="BN18" s="1">
-        <f>BM18*(1+$R$11)</f>
-        <v>654.50823491238214</v>
+        <f t="shared" si="40"/>
+        <v>669.29338383674758</v>
       </c>
       <c r="BO18" s="1">
-        <f>BN18*(1+$R$11)</f>
-        <v>647.96315256325829</v>
+        <f t="shared" si="40"/>
+        <v>662.6004499983801</v>
       </c>
       <c r="BP18" s="1">
-        <f>BO18*(1+$R$11)</f>
-        <v>641.48352103762568</v>
+        <f t="shared" si="40"/>
+        <v>655.97444549839634</v>
       </c>
       <c r="BQ18" s="1">
-        <f>BP18*(1+$R$11)</f>
-        <v>635.0686858272494</v>
+        <f t="shared" si="40"/>
+        <v>649.41470104341238</v>
       </c>
       <c r="BR18" s="1">
-        <f>BQ18*(1+$R$11)</f>
-        <v>628.71799896897687</v>
+        <f t="shared" si="40"/>
+        <v>642.9205540329782</v>
       </c>
       <c r="BS18" s="1">
-        <f>BR18*(1+$R$11)</f>
-        <v>622.4308189792871</v>
+        <f t="shared" si="40"/>
+        <v>636.4913484926484</v>
       </c>
       <c r="BT18" s="1">
-        <f>BS18*(1+$R$11)</f>
-        <v>616.20651078949425</v>
+        <f t="shared" si="40"/>
+        <v>630.12643500772197</v>
       </c>
       <c r="BU18" s="1">
-        <f>BT18*(1+$R$11)</f>
-        <v>610.04444568159931</v>
+        <f t="shared" si="40"/>
+        <v>623.82517065764478</v>
       </c>
       <c r="BV18" s="1">
-        <f>BU18*(1+$R$11)</f>
-        <v>603.94400122478328</v>
+        <f t="shared" si="40"/>
+        <v>617.58691895106836</v>
       </c>
       <c r="BW18" s="1">
-        <f>BV18*(1+$R$11)</f>
-        <v>597.90456121253544</v>
+        <f t="shared" si="40"/>
+        <v>611.41104976155771</v>
       </c>
       <c r="BX18" s="1">
-        <f>BW18*(1+$R$11)</f>
-        <v>591.92551560041011</v>
+        <f t="shared" si="40"/>
+        <v>605.29693926394214</v>
       </c>
       <c r="BY18" s="1">
-        <f>BX18*(1+$R$11)</f>
-        <v>586.00626044440605</v>
+        <f t="shared" si="40"/>
+        <v>599.24396987130274</v>
       </c>
       <c r="BZ18" s="1">
-        <f>BY18*(1+$R$11)</f>
-        <v>580.14619783996204</v>
+        <f t="shared" si="40"/>
+        <v>593.2515301725897</v>
       </c>
       <c r="CA18" s="1">
-        <f>BZ18*(1+$R$11)</f>
-        <v>574.34473586156241</v>
+        <f t="shared" si="40"/>
+        <v>587.31901487086384</v>
       </c>
       <c r="CB18" s="1">
-        <f>CA18*(1+$R$11)</f>
-        <v>568.60128850294677</v>
+        <f t="shared" ref="CB18:DF18" si="41">CA18*(1+$R$11)</f>
+        <v>581.44582472215518</v>
       </c>
       <c r="CC18" s="1">
-        <f>CB18*(1+$R$11)</f>
-        <v>562.91527561791725</v>
+        <f t="shared" si="41"/>
+        <v>575.63136647493366</v>
       </c>
       <c r="CD18" s="1">
-        <f>CC18*(1+$R$11)</f>
-        <v>557.28612286173802</v>
+        <f t="shared" si="41"/>
+        <v>569.87505281018434</v>
       </c>
       <c r="CE18" s="1">
-        <f>CD18*(1+$R$11)</f>
-        <v>551.71326163312062</v>
+        <f t="shared" si="41"/>
+        <v>564.17630228208247</v>
       </c>
       <c r="CF18" s="1">
-        <f>CE18*(1+$R$11)</f>
-        <v>546.19612901678943</v>
+        <f t="shared" si="41"/>
+        <v>558.53453925926169</v>
       </c>
       <c r="CG18" s="1">
-        <f>CF18*(1+$R$11)</f>
-        <v>540.73416772662154</v>
+        <f t="shared" si="41"/>
+        <v>552.94919386666902</v>
       </c>
       <c r="CH18" s="1">
-        <f>CG18*(1+$R$11)</f>
-        <v>535.3268260493553</v>
+        <f t="shared" si="41"/>
+        <v>547.41970192800227</v>
       </c>
       <c r="CI18" s="1">
-        <f>CH18*(1+$R$11)</f>
-        <v>529.97355778886174</v>
+        <f t="shared" si="41"/>
+        <v>541.94550490872223</v>
       </c>
       <c r="CJ18" s="1">
-        <f>CI18*(1+$R$11)</f>
-        <v>524.67382221097307</v>
+        <f t="shared" si="41"/>
+        <v>536.52604985963501</v>
       </c>
       <c r="CK18" s="1">
-        <f>CJ18*(1+$R$11)</f>
-        <v>519.42708398886339</v>
+        <f t="shared" si="41"/>
+        <v>531.16078936103861</v>
       </c>
       <c r="CL18" s="1">
-        <f>CK18*(1+$R$11)</f>
-        <v>514.23281314897474</v>
+        <f t="shared" si="41"/>
+        <v>525.84918146742825</v>
       </c>
       <c r="CM18" s="1">
-        <f>CL18*(1+$R$11)</f>
-        <v>509.09048501748498</v>
+        <f t="shared" si="41"/>
+        <v>520.59068965275401</v>
       </c>
       <c r="CN18" s="1">
-        <f>CM18*(1+$R$11)</f>
-        <v>503.99958016731011</v>
+        <f t="shared" si="41"/>
+        <v>515.38478275622651</v>
       </c>
       <c r="CO18" s="1">
-        <f>CN18*(1+$R$11)</f>
-        <v>498.959584365637</v>
+        <f t="shared" si="41"/>
+        <v>510.23093492866423</v>
       </c>
       <c r="CP18" s="1">
-        <f>CO18*(1+$R$11)</f>
-        <v>493.96998852198061</v>
+        <f t="shared" si="41"/>
+        <v>505.12862557937757</v>
       </c>
       <c r="CQ18" s="1">
-        <f>CP18*(1+$R$11)</f>
-        <v>489.03028863676082</v>
+        <f t="shared" si="41"/>
+        <v>500.07733932358377</v>
       </c>
       <c r="CR18" s="1">
-        <f>CQ18*(1+$R$11)</f>
-        <v>484.13998575039318</v>
+        <f t="shared" si="41"/>
+        <v>495.07656593034795</v>
       </c>
       <c r="CS18" s="1">
-        <f>CR18*(1+$R$11)</f>
-        <v>479.29858589288926</v>
+        <f t="shared" si="41"/>
+        <v>490.12580027104445</v>
       </c>
       <c r="CT18" s="1">
-        <f>CS18*(1+$R$11)</f>
-        <v>474.50560003396038</v>
+        <f t="shared" si="41"/>
+        <v>485.22454226833401</v>
       </c>
       <c r="CU18" s="1">
-        <f>CT18*(1+$R$11)</f>
-        <v>469.76054403362076</v>
+        <f t="shared" si="41"/>
+        <v>480.37229684565068</v>
       </c>
       <c r="CV18" s="1">
-        <f>CU18*(1+$R$11)</f>
-        <v>465.06293859328457</v>
+        <f t="shared" si="41"/>
+        <v>475.56857387719418</v>
       </c>
       <c r="CW18" s="1">
-        <f>CV18*(1+$R$11)</f>
-        <v>460.41230920735171</v>
+        <f t="shared" si="41"/>
+        <v>470.81288813842224</v>
       </c>
       <c r="CX18" s="1">
-        <f>CW18*(1+$R$11)</f>
-        <v>455.8081861152782</v>
+        <f t="shared" si="41"/>
+        <v>466.10475925703798</v>
       </c>
       <c r="CY18" s="1">
-        <f>CX18*(1+$R$11)</f>
-        <v>451.2501042541254</v>
+        <f t="shared" si="41"/>
+        <v>461.44371166446757</v>
       </c>
       <c r="CZ18" s="1">
-        <f>CY18*(1+$R$11)</f>
-        <v>446.73760321158414</v>
+        <f t="shared" si="41"/>
+        <v>456.82927454782288</v>
       </c>
       <c r="DA18" s="1">
-        <f>CZ18*(1+$R$11)</f>
-        <v>442.27022717946829</v>
+        <f t="shared" si="41"/>
+        <v>452.26098180234465</v>
       </c>
       <c r="DB18" s="1">
-        <f>DA18*(1+$R$11)</f>
-        <v>437.84752490767363</v>
+        <f t="shared" si="41"/>
+        <v>447.73837198432119</v>
       </c>
       <c r="DC18" s="1">
-        <f>DB18*(1+$R$11)</f>
-        <v>433.46904965859687</v>
+        <f t="shared" si="41"/>
+        <v>443.26098826447799</v>
       </c>
       <c r="DD18" s="1">
-        <f>DC18*(1+$R$11)</f>
-        <v>429.13435916201092</v>
+        <f t="shared" si="41"/>
+        <v>438.8283783818332</v>
       </c>
       <c r="DE18" s="1">
-        <f>DD18*(1+$R$11)</f>
-        <v>424.84301557039083</v>
+        <f t="shared" si="41"/>
+        <v>434.44009459801487</v>
       </c>
       <c r="DF18" s="1">
-        <f>DE18*(1+$R$11)</f>
-        <v>420.59458541468695</v>
+        <f t="shared" si="41"/>
+        <v>430.0956936520347</v>
       </c>
     </row>
     <row r="19" spans="1:111" x14ac:dyDescent="0.2">
@@ -1836,52 +2222,52 @@
         <v>1.4569701280227589</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" ref="D20:E20" si="38">D18/D19</f>
+        <f t="shared" ref="D20:E20" si="42">D18/D19</f>
         <v>1.9980625931445612</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>3.4318469860896439</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" ref="F20" si="39">F18/F19</f>
-        <v>5.1204842040185472</v>
+        <f t="shared" ref="F20" si="43">F18/F19</f>
+        <v>5.0311055332302939</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" ref="G20" si="40">G18/G19</f>
-        <v>5.2814296947140651</v>
+        <f t="shared" ref="G20" si="44">G18/G19</f>
+        <v>6.2938729590108196</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" ref="H20" si="41">H18/H19</f>
-        <v>5.7691991219160448</v>
+        <f t="shared" ref="H20" si="45">H18/H19</f>
+        <v>7.526501318317897</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" ref="I20" si="42">I18/I19</f>
-        <v>6.294239658049082</v>
+        <f t="shared" ref="I20" si="46">I18/I19</f>
+        <v>8.0360552727463777</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" ref="J20:O20" si="43">J18/J19</f>
-        <v>6.8592598423007747</v>
+        <f t="shared" ref="J20:O20" si="47">J18/J19</f>
+        <v>8.4002427890640146</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="43"/>
-        <v>7.1559739557243391</v>
+        <f t="shared" si="47"/>
+        <v>8.5934220697327195</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="43"/>
-        <v>7.4625802274764066</v>
+        <f t="shared" si="47"/>
+        <v>8.6038738548074356</v>
       </c>
       <c r="M20" s="6">
-        <f t="shared" si="43"/>
-        <v>7.7793727042190621</v>
+        <f t="shared" si="47"/>
+        <v>8.6143964312104657</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="43"/>
-        <v>8.1066534677309807</v>
+        <f t="shared" si="47"/>
+        <v>8.6249508899679892</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" si="43"/>
-        <v>8.44473283366864</v>
+        <f t="shared" si="47"/>
+        <v>8.635496869798736</v>
       </c>
     </row>
     <row r="22" spans="1:111" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1897,45 +2283,48 @@
         <v>0.22443018740503118</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" ref="F22:J22" si="44">F6/E6-1</f>
-        <v>0.18189106510052966</v>
+        <f t="shared" ref="F22:J22" si="48">F6/E6-1</f>
+        <v>0.22128743393721395</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="44"/>
-        <v>7.0000000000000062E-2</v>
+        <f t="shared" si="48"/>
+        <v>0.19758064516129026</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="44"/>
-        <v>7.0000000000000062E-2</v>
+        <f t="shared" si="48"/>
+        <v>0.15824915824915831</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="44"/>
-        <v>7.0000000000000062E-2</v>
+        <f t="shared" si="48"/>
+        <v>4.9418604651162878E-2</v>
       </c>
       <c r="J22" s="7">
-        <f t="shared" si="44"/>
-        <v>7.0000000000000062E-2</v>
+        <f t="shared" si="48"/>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" ref="K22" si="45">K6/J6-1</f>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" ref="K22" si="49">K6/J6-1</f>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="L22" s="7">
-        <f t="shared" ref="L22" si="46">L6/K6-1</f>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" ref="L22" si="50">L6/K6-1</f>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="M22" s="7">
-        <f t="shared" ref="M22" si="47">M6/L6-1</f>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" ref="M22" si="51">M6/L6-1</f>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="N22" s="7">
-        <f t="shared" ref="N22" si="48">N6/M6-1</f>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" ref="N22" si="52">N6/M6-1</f>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="O22" s="7">
-        <f t="shared" ref="O22" si="49">O6/N6-1</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
+        <f t="shared" ref="O22" si="53">O6/N6-1</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:111" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
@@ -1954,7 +2343,7 @@
         <v>0.84300547018581296</v>
       </c>
       <c r="F24" s="5">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="G24" s="5">
         <v>0.8</v>
@@ -1989,56 +2378,56 @@
         <v>25</v>
       </c>
       <c r="C25" s="7">
-        <f>C13/C6</f>
+        <f t="shared" ref="C25:O25" si="54">C13/C6</f>
         <v>0.40536855818462736</v>
       </c>
       <c r="D25" s="7">
-        <f>D13/D6</f>
+        <f t="shared" si="54"/>
         <v>0.40703311545790027</v>
       </c>
       <c r="E25" s="7">
-        <f>E13/E6</f>
+        <f t="shared" si="54"/>
         <v>0.5431498578775994</v>
       </c>
       <c r="F25" s="7">
-        <f>F13/F6</f>
-        <v>0.70627333333333331</v>
+        <f t="shared" si="54"/>
+        <v>0.67183145161290325</v>
       </c>
       <c r="G25" s="7">
-        <f>G13/G6</f>
-        <v>0.67002267912772584</v>
+        <f t="shared" si="54"/>
+        <v>0.6897664175084175</v>
       </c>
       <c r="H25" s="7">
-        <f>H13/H6</f>
-        <v>0.67366690307741595</v>
+        <f t="shared" si="54"/>
+        <v>0.70197222319767438</v>
       </c>
       <c r="I25" s="7">
-        <f>I13/I6</f>
-        <v>0.6772089525238435</v>
+        <f t="shared" si="54"/>
+        <v>0.7037861443861495</v>
       </c>
       <c r="J25" s="7">
-        <f>J13/J6</f>
-        <v>0.68065169217270771</v>
+        <f t="shared" si="54"/>
+        <v>0.70378614438614961</v>
       </c>
       <c r="K25" s="7">
-        <f>K13/K6</f>
-        <v>0.67949297073749126</v>
+        <f t="shared" si="54"/>
+        <v>0.70188091952250908</v>
       </c>
       <c r="L25" s="7">
-        <f>L13/L6</f>
-        <v>0.67832299957960274</v>
+        <f t="shared" si="54"/>
+        <v>0.69791651223048923</v>
       </c>
       <c r="M25" s="7">
-        <f>M13/M6</f>
-        <v>0.67714166947843379</v>
+        <f t="shared" si="54"/>
+        <v>0.69379192686606439</v>
       </c>
       <c r="N25" s="7">
-        <f>N13/N6</f>
-        <v>0.67594887015298177</v>
+        <f t="shared" si="54"/>
+        <v>0.68950069158792571</v>
       </c>
       <c r="O25" s="7">
-        <f>O13/O6</f>
-        <v>0.67474449025155436</v>
+        <f t="shared" si="54"/>
+        <v>0.68503607306622571</v>
       </c>
     </row>
     <row r="26" spans="1:111" x14ac:dyDescent="0.2">
@@ -2062,39 +2451,39 @@
         <v>0.4705581086591249</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" ref="G26:J26" si="50">F26*1.02</f>
+        <f t="shared" ref="G26:J26" si="55">F26*1.02</f>
         <v>0.47996927083230739</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.48956865624895357</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.49936002937393265</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.50934722996141135</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" ref="K26" si="51">J26*1.02</f>
+        <f t="shared" ref="K26" si="56">J26*1.02</f>
         <v>0.51953417456063955</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" ref="L26" si="52">K26*1.02</f>
+        <f t="shared" ref="L26" si="57">K26*1.02</f>
         <v>0.5299248580518523</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" ref="M26" si="53">L26*1.02</f>
+        <f t="shared" ref="M26" si="58">L26*1.02</f>
         <v>0.5405233552128893</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" ref="N26" si="54">M26*1.02</f>
+        <f t="shared" ref="N26" si="59">M26*1.02</f>
         <v>0.55133382231714712</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" ref="O26" si="55">N26*1.02</f>
+        <f t="shared" ref="O26" si="60">N26*1.02</f>
         <v>0.56236049876349004</v>
       </c>
     </row>
@@ -2135,436 +2524,436 @@
         <v>235.29999999999998</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" ref="D30:E30" si="56">D28-D29</f>
+        <f t="shared" ref="D30:E30" si="61">D28-D29</f>
         <v>373.3</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>468.40000000000003</v>
       </c>
       <c r="F30" s="3">
         <f>F26*F6</f>
-        <v>564.66973039094989</v>
+        <v>583.4920547373149</v>
       </c>
       <c r="G30" s="3">
         <f>G26*G6</f>
-        <v>616.2805437486827</v>
+        <v>712.75436718597643</v>
       </c>
       <c r="H30" s="3">
         <f>H26*H6</f>
-        <v>672.60858544731241</v>
+        <v>842.05808874820013</v>
       </c>
       <c r="I30" s="3">
         <f>I26*I6</f>
-        <v>734.08501015719685</v>
+        <v>901.34485301994846</v>
       </c>
       <c r="J30" s="3">
         <f>J26*J6</f>
-        <v>801.18038008556471</v>
+        <v>946.95290258275793</v>
       </c>
       <c r="K30" s="3">
-        <f>J30*(1+$R$11)</f>
-        <v>793.16857628470905</v>
+        <f t="shared" ref="K30:AP30" si="62">J30*(1+$R$11)</f>
+        <v>937.48337355693036</v>
       </c>
       <c r="L30" s="3">
-        <f>K30*(1+$R$11)</f>
-        <v>785.23689052186194</v>
+        <f t="shared" si="62"/>
+        <v>928.10853982136109</v>
       </c>
       <c r="M30" s="3">
-        <f>L30*(1+$R$11)</f>
-        <v>777.38452161664327</v>
+        <f t="shared" si="62"/>
+        <v>918.82745442314751</v>
       </c>
       <c r="N30" s="3">
-        <f>M30*(1+$R$11)</f>
-        <v>769.61067640047679</v>
+        <f t="shared" si="62"/>
+        <v>909.63917987891602</v>
       </c>
       <c r="O30" s="3">
-        <f>N30*(1+$R$11)</f>
-        <v>761.91456963647204</v>
+        <f t="shared" si="62"/>
+        <v>900.54278808012691</v>
       </c>
       <c r="P30" s="3">
-        <f>O30*(1+$R$11)</f>
-        <v>754.2954239401073</v>
+        <f t="shared" si="62"/>
+        <v>891.53736019932569</v>
       </c>
       <c r="Q30" s="3">
-        <f>P30*(1+$R$11)</f>
-        <v>746.75246970070623</v>
+        <f t="shared" si="62"/>
+        <v>882.62198659733247</v>
       </c>
       <c r="R30" s="3">
-        <f>Q30*(1+$R$11)</f>
-        <v>739.28494500369914</v>
+        <f t="shared" si="62"/>
+        <v>873.79576673135909</v>
       </c>
       <c r="S30" s="3">
-        <f>R30*(1+$R$11)</f>
-        <v>731.8920955536621</v>
+        <f t="shared" si="62"/>
+        <v>865.0578090640455</v>
       </c>
       <c r="T30" s="3">
-        <f>S30*(1+$R$11)</f>
-        <v>724.57317459812543</v>
+        <f t="shared" si="62"/>
+        <v>856.40723097340504</v>
       </c>
       <c r="U30" s="3">
-        <f>T30*(1+$R$11)</f>
-        <v>717.32744285214415</v>
+        <f t="shared" si="62"/>
+        <v>847.84315866367103</v>
       </c>
       <c r="V30" s="3">
-        <f>U30*(1+$R$11)</f>
-        <v>710.15416842362265</v>
+        <f t="shared" si="62"/>
+        <v>839.36472707703433</v>
       </c>
       <c r="W30" s="3">
-        <f>V30*(1+$R$11)</f>
-        <v>703.05262673938637</v>
+        <f t="shared" si="62"/>
+        <v>830.97107980626402</v>
       </c>
       <c r="X30" s="3">
-        <f>W30*(1+$R$11)</f>
-        <v>696.02210047199253</v>
+        <f t="shared" si="62"/>
+        <v>822.6613690082014</v>
       </c>
       <c r="Y30" s="3">
-        <f>X30*(1+$R$11)</f>
-        <v>689.06187946727255</v>
+        <f t="shared" si="62"/>
+        <v>814.43475531811941</v>
       </c>
       <c r="Z30" s="3">
-        <f>Y30*(1+$R$11)</f>
-        <v>682.17126067259983</v>
+        <f t="shared" si="62"/>
+        <v>806.29040776493821</v>
       </c>
       <c r="AA30" s="3">
-        <f>Z30*(1+$R$11)</f>
-        <v>675.34954806587382</v>
+        <f t="shared" si="62"/>
+        <v>798.22750368728884</v>
       </c>
       <c r="AB30" s="3">
-        <f>AA30*(1+$R$11)</f>
-        <v>668.59605258521503</v>
+        <f t="shared" si="62"/>
+        <v>790.24522865041592</v>
       </c>
       <c r="AC30" s="3">
-        <f>AB30*(1+$R$11)</f>
-        <v>661.91009205936291</v>
+        <f t="shared" si="62"/>
+        <v>782.34277636391175</v>
       </c>
       <c r="AD30" s="3">
-        <f>AC30*(1+$R$11)</f>
-        <v>655.2909911387693</v>
+        <f t="shared" si="62"/>
+        <v>774.51934860027268</v>
       </c>
       <c r="AE30" s="3">
-        <f>AD30*(1+$R$11)</f>
-        <v>648.7380812273816</v>
+        <f t="shared" si="62"/>
+        <v>766.77415511426989</v>
       </c>
       <c r="AF30" s="3">
-        <f>AE30*(1+$R$11)</f>
-        <v>642.25070041510776</v>
+        <f t="shared" si="62"/>
+        <v>759.10641356312715</v>
       </c>
       <c r="AG30" s="3">
-        <f>AF30*(1+$R$11)</f>
-        <v>635.82819341095671</v>
+        <f t="shared" si="62"/>
+        <v>751.51534942749583</v>
       </c>
       <c r="AH30" s="3">
-        <f>AG30*(1+$R$11)</f>
-        <v>629.46991147684719</v>
+        <f t="shared" si="62"/>
+        <v>744.00019593322088</v>
       </c>
       <c r="AI30" s="3">
-        <f>AH30*(1+$R$11)</f>
-        <v>623.1752123620787</v>
+        <f t="shared" si="62"/>
+        <v>736.56019397388866</v>
       </c>
       <c r="AJ30" s="3">
-        <f>AI30*(1+$R$11)</f>
-        <v>616.94346023845787</v>
+        <f t="shared" si="62"/>
+        <v>729.19459203414976</v>
       </c>
       <c r="AK30" s="3">
-        <f>AJ30*(1+$R$11)</f>
-        <v>610.77402563607325</v>
+        <f t="shared" si="62"/>
+        <v>721.90264611380826</v>
       </c>
       <c r="AL30" s="3">
-        <f>AK30*(1+$R$11)</f>
-        <v>604.66628537971246</v>
+        <f t="shared" si="62"/>
+        <v>714.68361965267013</v>
       </c>
       <c r="AM30" s="3">
-        <f>AL30*(1+$R$11)</f>
-        <v>598.61962252591536</v>
+        <f t="shared" si="62"/>
+        <v>707.53678345614344</v>
       </c>
       <c r="AN30" s="3">
-        <f>AM30*(1+$R$11)</f>
-        <v>592.6334263006562</v>
+        <f t="shared" si="62"/>
+        <v>700.46141562158198</v>
       </c>
       <c r="AO30" s="3">
-        <f>AN30*(1+$R$11)</f>
-        <v>586.70709203764966</v>
+        <f t="shared" si="62"/>
+        <v>693.4568014653662</v>
       </c>
       <c r="AP30" s="3">
-        <f>AO30*(1+$R$11)</f>
-        <v>580.84002111727318</v>
+        <f t="shared" si="62"/>
+        <v>686.52223345071252</v>
       </c>
       <c r="AQ30" s="3">
-        <f>AP30*(1+$R$11)</f>
-        <v>575.03162090610044</v>
+        <f t="shared" ref="AQ30:BV30" si="63">AP30*(1+$R$11)</f>
+        <v>679.65701111620535</v>
       </c>
       <c r="AR30" s="3">
-        <f>AQ30*(1+$R$11)</f>
-        <v>569.28130469703945</v>
+        <f t="shared" si="63"/>
+        <v>672.8604410050433</v>
       </c>
       <c r="AS30" s="3">
-        <f>AR30*(1+$R$11)</f>
-        <v>563.58849165006905</v>
+        <f t="shared" si="63"/>
+        <v>666.13183659499282</v>
       </c>
       <c r="AT30" s="3">
-        <f>AS30*(1+$R$11)</f>
-        <v>557.95260673356836</v>
+        <f t="shared" si="63"/>
+        <v>659.47051822904291</v>
       </c>
       <c r="AU30" s="3">
-        <f>AT30*(1+$R$11)</f>
-        <v>552.37308066623268</v>
+        <f t="shared" si="63"/>
+        <v>652.87581304675246</v>
       </c>
       <c r="AV30" s="3">
-        <f>AU30*(1+$R$11)</f>
-        <v>546.84934985957034</v>
+        <f t="shared" si="63"/>
+        <v>646.34705491628495</v>
       </c>
       <c r="AW30" s="3">
-        <f>AV30*(1+$R$11)</f>
-        <v>541.38085636097458</v>
+        <f t="shared" si="63"/>
+        <v>639.88358436712213</v>
       </c>
       <c r="AX30" s="3">
-        <f>AW30*(1+$R$11)</f>
-        <v>535.96704779736478</v>
+        <f t="shared" si="63"/>
+        <v>633.48474852345089</v>
       </c>
       <c r="AY30" s="3">
-        <f>AX30*(1+$R$11)</f>
-        <v>530.60737731939116</v>
+        <f t="shared" si="63"/>
+        <v>627.1499010382164</v>
       </c>
       <c r="AZ30" s="3">
-        <f>AY30*(1+$R$11)</f>
-        <v>525.30130354619723</v>
+        <f t="shared" si="63"/>
+        <v>620.87840202783423</v>
       </c>
       <c r="BA30" s="3">
-        <f>AZ30*(1+$R$11)</f>
-        <v>520.04829051073523</v>
+        <f t="shared" si="63"/>
+        <v>614.66961800755587</v>
       </c>
       <c r="BB30" s="3">
-        <f>BA30*(1+$R$11)</f>
-        <v>514.84780760562785</v>
+        <f t="shared" si="63"/>
+        <v>608.52292182748033</v>
       </c>
       <c r="BC30" s="3">
-        <f>BB30*(1+$R$11)</f>
-        <v>509.69932952957157</v>
+        <f t="shared" si="63"/>
+        <v>602.43769260920556</v>
       </c>
       <c r="BD30" s="3">
-        <f>BC30*(1+$R$11)</f>
-        <v>504.60233623427587</v>
+        <f t="shared" si="63"/>
+        <v>596.41331568311352</v>
       </c>
       <c r="BE30" s="3">
-        <f>BD30*(1+$R$11)</f>
-        <v>499.55631287193313</v>
+        <f t="shared" si="63"/>
+        <v>590.44918252628236</v>
       </c>
       <c r="BF30" s="3">
-        <f>BE30*(1+$R$11)</f>
-        <v>494.56074974321382</v>
+        <f t="shared" si="63"/>
+        <v>584.54469070101948</v>
       </c>
       <c r="BG30" s="3">
-        <f>BF30*(1+$R$11)</f>
-        <v>489.61514224578167</v>
+        <f t="shared" si="63"/>
+        <v>578.69924379400925</v>
       </c>
       <c r="BH30" s="3">
-        <f>BG30*(1+$R$11)</f>
-        <v>484.71899082332385</v>
+        <f t="shared" si="63"/>
+        <v>572.91225135606919</v>
       </c>
       <c r="BI30" s="3">
-        <f>BH30*(1+$R$11)</f>
-        <v>479.8718009150906</v>
+        <f t="shared" si="63"/>
+        <v>567.18312884250849</v>
       </c>
       <c r="BJ30" s="3">
-        <f>BI30*(1+$R$11)</f>
-        <v>475.07308290593971</v>
+        <f t="shared" si="63"/>
+        <v>561.5112975540834</v>
       </c>
       <c r="BK30" s="3">
-        <f>BJ30*(1+$R$11)</f>
-        <v>470.32235207688029</v>
+        <f t="shared" si="63"/>
+        <v>555.8961845785426</v>
       </c>
       <c r="BL30" s="3">
-        <f>BK30*(1+$R$11)</f>
-        <v>465.61912855611149</v>
+        <f t="shared" si="63"/>
+        <v>550.33722273275714</v>
       </c>
       <c r="BM30" s="3">
-        <f>BL30*(1+$R$11)</f>
-        <v>460.96293727055036</v>
+        <f t="shared" si="63"/>
+        <v>544.83385050542961</v>
       </c>
       <c r="BN30" s="3">
-        <f>BM30*(1+$R$11)</f>
-        <v>456.35330789784484</v>
+        <f t="shared" si="63"/>
+        <v>539.38551200037534</v>
       </c>
       <c r="BO30" s="3">
-        <f>BN30*(1+$R$11)</f>
-        <v>451.78977481886636</v>
+        <f t="shared" si="63"/>
+        <v>533.99165688037158</v>
       </c>
       <c r="BP30" s="3">
-        <f>BO30*(1+$R$11)</f>
-        <v>447.2718770706777</v>
+        <f t="shared" si="63"/>
+        <v>528.65174031156789</v>
       </c>
       <c r="BQ30" s="3">
-        <f>BP30*(1+$R$11)</f>
-        <v>442.79915829997094</v>
+        <f t="shared" si="63"/>
+        <v>523.36522290845221</v>
       </c>
       <c r="BR30" s="3">
-        <f>BQ30*(1+$R$11)</f>
-        <v>438.37116671697123</v>
+        <f t="shared" si="63"/>
+        <v>518.13157067936766</v>
       </c>
       <c r="BS30" s="3">
-        <f>BR30*(1+$R$11)</f>
-        <v>433.9874550498015</v>
+        <f t="shared" si="63"/>
+        <v>512.95025497257393</v>
       </c>
       <c r="BT30" s="3">
-        <f>BS30*(1+$R$11)</f>
-        <v>429.6475804993035</v>
+        <f t="shared" si="63"/>
+        <v>507.82075242284816</v>
       </c>
       <c r="BU30" s="3">
-        <f>BT30*(1+$R$11)</f>
-        <v>425.35110469431044</v>
+        <f t="shared" si="63"/>
+        <v>502.74254489861966</v>
       </c>
       <c r="BV30" s="3">
-        <f>BU30*(1+$R$11)</f>
-        <v>421.09759364736732</v>
+        <f t="shared" si="63"/>
+        <v>497.71511944963345</v>
       </c>
       <c r="BW30" s="3">
-        <f>BV30*(1+$R$11)</f>
-        <v>416.88661771089363</v>
+        <f t="shared" ref="BW30:DG30" si="64">BV30*(1+$R$11)</f>
+        <v>492.7379682551371</v>
       </c>
       <c r="BX30" s="3">
-        <f>BW30*(1+$R$11)</f>
-        <v>412.71775153378468</v>
+        <f t="shared" si="64"/>
+        <v>487.81058857258574</v>
       </c>
       <c r="BY30" s="3">
-        <f>BX30*(1+$R$11)</f>
-        <v>408.59057401844683</v>
+        <f t="shared" si="64"/>
+        <v>482.93248268685988</v>
       </c>
       <c r="BZ30" s="3">
-        <f>BY30*(1+$R$11)</f>
-        <v>404.50466827826239</v>
+        <f t="shared" si="64"/>
+        <v>478.10315785999126</v>
       </c>
       <c r="CA30" s="3">
-        <f>BZ30*(1+$R$11)</f>
-        <v>400.45962159547975</v>
+        <f t="shared" si="64"/>
+        <v>473.32212628139132</v>
       </c>
       <c r="CB30" s="3">
-        <f>CA30*(1+$R$11)</f>
-        <v>396.45502537952495</v>
+        <f t="shared" si="64"/>
+        <v>468.58890501857741</v>
       </c>
       <c r="CC30" s="3">
-        <f>CB30*(1+$R$11)</f>
-        <v>392.49047512572969</v>
+        <f t="shared" si="64"/>
+        <v>463.90301596839163</v>
       </c>
       <c r="CD30" s="3">
-        <f>CC30*(1+$R$11)</f>
-        <v>388.56557037447237</v>
+        <f t="shared" si="64"/>
+        <v>459.26398580870773</v>
       </c>
       <c r="CE30" s="3">
-        <f>CD30*(1+$R$11)</f>
-        <v>384.67991467072767</v>
+        <f t="shared" si="64"/>
+        <v>454.67134595062066</v>
       </c>
       <c r="CF30" s="3">
-        <f>CE30*(1+$R$11)</f>
-        <v>380.8331155240204</v>
+        <f t="shared" si="64"/>
+        <v>450.12463249111443</v>
       </c>
       <c r="CG30" s="3">
-        <f>CF30*(1+$R$11)</f>
-        <v>377.02478436878022</v>
+        <f t="shared" si="64"/>
+        <v>445.62338616620326</v>
       </c>
       <c r="CH30" s="3">
-        <f>CG30*(1+$R$11)</f>
-        <v>373.25453652509242</v>
+        <f t="shared" si="64"/>
+        <v>441.16715230454122</v>
       </c>
       <c r="CI30" s="3">
-        <f>CH30*(1+$R$11)</f>
-        <v>369.52199115984149</v>
+        <f t="shared" si="64"/>
+        <v>436.75548078149581</v>
       </c>
       <c r="CJ30" s="3">
-        <f>CI30*(1+$R$11)</f>
-        <v>365.82677124824306</v>
+        <f t="shared" si="64"/>
+        <v>432.38792597368086</v>
       </c>
       <c r="CK30" s="3">
-        <f>CJ30*(1+$R$11)</f>
-        <v>362.16850353576064</v>
+        <f t="shared" si="64"/>
+        <v>428.06404671394404</v>
       </c>
       <c r="CL30" s="3">
-        <f>CK30*(1+$R$11)</f>
-        <v>358.54681850040305</v>
+        <f t="shared" si="64"/>
+        <v>423.78340624680459</v>
       </c>
       <c r="CM30" s="3">
-        <f>CL30*(1+$R$11)</f>
-        <v>354.96135031539899</v>
+        <f t="shared" si="64"/>
+        <v>419.54557218433655</v>
       </c>
       <c r="CN30" s="3">
-        <f>CM30*(1+$R$11)</f>
-        <v>351.41173681224501</v>
+        <f t="shared" si="64"/>
+        <v>415.35011646249319</v>
       </c>
       <c r="CO30" s="3">
-        <f>CN30*(1+$R$11)</f>
-        <v>347.89761944412254</v>
+        <f t="shared" si="64"/>
+        <v>411.19661529786828</v>
       </c>
       <c r="CP30" s="3">
-        <f>CO30*(1+$R$11)</f>
-        <v>344.41864324968134</v>
+        <f t="shared" si="64"/>
+        <v>407.08464914488957</v>
       </c>
       <c r="CQ30" s="3">
-        <f>CP30*(1+$R$11)</f>
-        <v>340.97445681718455</v>
+        <f t="shared" si="64"/>
+        <v>403.01380265344068</v>
       </c>
       <c r="CR30" s="3">
-        <f>CQ30*(1+$R$11)</f>
-        <v>337.5647122490127</v>
+        <f t="shared" si="64"/>
+        <v>398.98366462690626</v>
       </c>
       <c r="CS30" s="3">
-        <f>CR30*(1+$R$11)</f>
-        <v>334.18906512652256</v>
+        <f t="shared" si="64"/>
+        <v>394.99382798063721</v>
       </c>
       <c r="CT30" s="3">
-        <f>CS30*(1+$R$11)</f>
-        <v>330.84717447525736</v>
+        <f t="shared" si="64"/>
+        <v>391.04388970083085</v>
       </c>
       <c r="CU30" s="3">
-        <f>CT30*(1+$R$11)</f>
-        <v>327.53870273050478</v>
+        <f t="shared" si="64"/>
+        <v>387.13345080382254</v>
       </c>
       <c r="CV30" s="3">
-        <f>CU30*(1+$R$11)</f>
-        <v>324.26331570319974</v>
+        <f t="shared" si="64"/>
+        <v>383.26211629578432</v>
       </c>
       <c r="CW30" s="3">
-        <f>CV30*(1+$R$11)</f>
-        <v>321.02068254616773</v>
+        <f t="shared" si="64"/>
+        <v>379.4294951328265</v>
       </c>
       <c r="CX30" s="3">
-        <f>CW30*(1+$R$11)</f>
-        <v>317.81047572070605</v>
+        <f t="shared" si="64"/>
+        <v>375.63520018149825</v>
       </c>
       <c r="CY30" s="3">
-        <f>CX30*(1+$R$11)</f>
-        <v>314.632370963499</v>
+        <f t="shared" si="64"/>
+        <v>371.87884817968325</v>
       </c>
       <c r="CZ30" s="3">
-        <f>CY30*(1+$R$11)</f>
-        <v>311.486047253864</v>
+        <f t="shared" si="64"/>
+        <v>368.16005969788642</v>
       </c>
       <c r="DA30" s="3">
-        <f>CZ30*(1+$R$11)</f>
-        <v>308.37118678132538</v>
+        <f t="shared" si="64"/>
+        <v>364.47845910090757</v>
       </c>
       <c r="DB30" s="3">
-        <f>DA30*(1+$R$11)</f>
-        <v>305.28747491351214</v>
+        <f t="shared" si="64"/>
+        <v>360.83367450989851</v>
       </c>
       <c r="DC30" s="3">
-        <f>DB30*(1+$R$11)</f>
-        <v>302.23460016437701</v>
+        <f t="shared" si="64"/>
+        <v>357.22533776479952</v>
       </c>
       <c r="DD30" s="3">
-        <f>DC30*(1+$R$11)</f>
-        <v>299.21225416273325</v>
+        <f t="shared" si="64"/>
+        <v>353.65308438715152</v>
       </c>
       <c r="DE30" s="3">
-        <f>DD30*(1+$R$11)</f>
-        <v>296.22013162110591</v>
+        <f t="shared" si="64"/>
+        <v>350.11655354328002</v>
       </c>
       <c r="DF30" s="3">
-        <f>DE30*(1+$R$11)</f>
-        <v>293.25793030489484</v>
+        <f t="shared" si="64"/>
+        <v>346.61538800784723</v>
       </c>
       <c r="DG30" s="3">
-        <f>DF30*(1+$R$11)</f>
-        <v>290.32535100184589</v>
+        <f t="shared" si="64"/>
+        <v>343.14923412776875</v>
       </c>
     </row>
     <row r="32" spans="1:111" x14ac:dyDescent="0.2">
@@ -2577,43 +2966,43 @@
       </c>
       <c r="F32" s="1">
         <f>E32+F18</f>
-        <v>-301.89334399999996</v>
+        <v>-313.45894399999997</v>
       </c>
       <c r="G32" s="1">
         <f>F32+G18</f>
-        <v>381.52365849600005</v>
+        <v>500.96821689600006</v>
       </c>
       <c r="H32" s="1">
         <f>G32+H18</f>
-        <v>1128.0580248719361</v>
+        <v>1474.8974874863361</v>
       </c>
       <c r="I32" s="1">
         <f>H32+I18</f>
-        <v>1942.5326366234874</v>
+        <v>2514.7630397797175</v>
       </c>
       <c r="J32" s="1">
         <f>I32+J18</f>
-        <v>2830.1208602172078</v>
+        <v>3601.7544566846009</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" ref="K32:O32" si="57">J32+K18</f>
-        <v>3756.1038900879375</v>
+        <f t="shared" ref="K32:O32" si="65">J32+K18</f>
+        <v>4713.7432725080143</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" si="57"/>
-        <v>4721.7617715233846</v>
+        <f t="shared" si="65"/>
+        <v>5827.0845493200968</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="57"/>
-        <v>5728.4125994493315</v>
+        <f t="shared" si="65"/>
+        <v>6941.7874475187309</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" si="57"/>
-        <v>6777.413558173721</v>
+        <f t="shared" si="65"/>
+        <v>8057.8560926805885</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" si="57"/>
-        <v>7870.1619868504431</v>
+        <f t="shared" si="65"/>
+        <v>9175.2893876325452</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -2640,5 +3029,18 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEACF7BE-0C22-497F-81A9-7EFFCB94D7D4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>